--- a/Resource/Petdetails.xlsx
+++ b/Resource/Petdetails.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITHANTH\eclipse-workspace\petstore\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016FEC93-87FE-41DB-84BD-82E2C7BE12F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B881D1-D1E1-4EA5-9E54-B47BE8288E0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="addNewPet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Julie</t>
   </si>
   <si>
-    <t>katar</t>
-  </si>
-  <si>
     <t>Tomy</t>
   </si>
   <si>
@@ -60,13 +57,32 @@
     <t>available</t>
   </si>
   <si>
-    <t>doggy</t>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>Katar</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +413,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,54 +434,66 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resource/Petdetails.xlsx
+++ b/Resource/Petdetails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
